--- a/data/tower_count/tower_count_2010.xlsx
+++ b/data/tower_count/tower_count_2010.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562AC9AF-59D8-44BE-BC62-C389B7A654C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +48,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>FOG</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
     <t>1 ARTE, 2 ATPU, 2 DCCO</t>
   </si>
   <si>
-    <t>no count</t>
-  </si>
-  <si>
     <t>5 ATPU, 1 DCCO</t>
   </si>
   <si>
@@ -132,12 +132,6 @@
     <t>5 ATPU, 1 COTE</t>
   </si>
   <si>
-    <t>7/23 - 7/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> off island no count</t>
-  </si>
-  <si>
     <t>2 ATPU, 2 ARTE</t>
   </si>
   <si>
@@ -151,12 +145,15 @@
   </si>
   <si>
     <t>NOTE: listed as 6/27 in book, but in sequence to be July…</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,6 +204,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -254,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +287,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +339,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,18 +531,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -536,7 +570,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41434</v>
+        <v>40338</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -548,18 +582,18 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41435</v>
+        <v>40339</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -571,18 +605,18 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41436</v>
+        <v>40340</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -594,7 +628,7 @@
         <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>132</v>
@@ -602,7 +636,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41437</v>
+        <v>40341</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -614,18 +648,18 @@
         <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41438</v>
+        <v>40342</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -637,41 +671,56 @@
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41439</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>40344</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41440</v>
+        <v>40345</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -679,103 +728,106 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41441</v>
+        <v>40346</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>198</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41442</v>
+        <v>40347</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>193</v>
       </c>
-      <c r="E12">
-        <v>13</v>
+      <c r="E12" t="s">
+        <v>41</v>
       </c>
       <c r="F12">
         <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41443</v>
+        <v>40348</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D13">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41444</v>
+        <v>40349</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>145</v>
-      </c>
-      <c r="D14">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="D14" s="2">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41445</v>
+        <v>40350</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>160</v>
@@ -783,37 +835,34 @@
       <c r="D15" s="2">
         <v>21</v>
       </c>
-      <c r="E15">
-        <v>10</v>
+      <c r="E15" t="s">
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41446</v>
+        <v>40351</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -821,22 +870,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41447</v>
+        <v>40354</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -844,475 +893,422 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41450</v>
+        <v>40355</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41451</v>
+        <v>40356</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41452</v>
+        <v>40360</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41455</v>
+        <v>40361</v>
       </c>
       <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
         <v>28</v>
-      </c>
-      <c r="C22">
-        <v>137</v>
-      </c>
-      <c r="D22" s="2">
-        <v>24</v>
-      </c>
-      <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>165</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41456</v>
+        <v>40362</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
         <v>9</v>
       </c>
       <c r="F23">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41457</v>
+        <v>40363</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41458</v>
+        <v>40364</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41459</v>
+        <v>40365</v>
       </c>
       <c r="B26">
         <v>32</v>
       </c>
       <c r="C26">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2">
         <v>30</v>
       </c>
       <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
         <v>9</v>
-      </c>
-      <c r="F26">
-        <v>160</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41460</v>
+        <v>40373</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41461</v>
+        <v>40377</v>
       </c>
       <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>194</v>
+      </c>
+      <c r="D28" s="2">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
         <v>32</v>
-      </c>
-      <c r="C28">
-        <v>204</v>
-      </c>
-      <c r="D28" s="2">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41462</v>
-      </c>
-      <c r="B29" t="s">
+        <v>40378</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>254</v>
+      </c>
+      <c r="D29" s="2">
         <v>33</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>137</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41463</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>40379</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>145</v>
+      </c>
+      <c r="D30" s="2">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41469</v>
+        <v>40380</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="D31" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41473</v>
+        <v>40381</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D32" s="2">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41474</v>
+        <v>40385</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>254</v>
-      </c>
-      <c r="D33" s="2">
-        <v>33</v>
+        <v>118</v>
+      </c>
+      <c r="D33">
+        <v>281</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>41475</v>
+        <v>40386</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>145</v>
-      </c>
-      <c r="D34" s="2">
-        <v>23</v>
+        <v>227</v>
+      </c>
+      <c r="D34">
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>41476</v>
+        <v>40388</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>223</v>
-      </c>
-      <c r="D35" s="2">
-        <v>57</v>
+        <v>235</v>
+      </c>
+      <c r="D35">
+        <v>370</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>41477</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>258</v>
-      </c>
-      <c r="D36" s="2">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>168</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="J35" t="s">
         <v>39</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>41481</v>
-      </c>
-      <c r="B38">
-        <v>22</v>
-      </c>
-      <c r="C38">
-        <v>118</v>
-      </c>
-      <c r="D38">
-        <v>281</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38">
-        <v>203</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>41482</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>227</v>
-      </c>
-      <c r="D39">
-        <v>366</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39">
-        <v>250</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>41484</v>
-      </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
-      <c r="C40">
-        <v>235</v>
-      </c>
-      <c r="D40">
-        <v>370</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>233</v>
-      </c>
-      <c r="G40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1334,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
